--- a/Casos_de_Uso_v.0.4.xlsx
+++ b/Casos_de_Uso_v.0.4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
   <si>
     <t>Inicializar Partida</t>
   </si>
@@ -234,15 +234,6 @@
     <t>Pagar del hippie</t>
   </si>
   <si>
-    <t>Faltan: 21 propiedades</t>
-  </si>
-  <si>
-    <t>Total: 43 propiedades</t>
-  </si>
-  <si>
-    <t>Hechas: 22 propiedades</t>
-  </si>
-  <si>
     <t xml:space="preserve">Asignadas a </t>
   </si>
   <si>
@@ -256,13 +247,25 @@
   </si>
   <si>
     <t>pf term.</t>
+  </si>
+  <si>
+    <t>Escoger ficha</t>
+  </si>
+  <si>
+    <t>Faltan: 16 cu</t>
+  </si>
+  <si>
+    <t>Total: 47 cu</t>
+  </si>
+  <si>
+    <t>Hechas: 31 cu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,15 +301,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,9 +444,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -466,20 +464,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:L54"/>
+  <dimension ref="A3:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -791,37 +791,37 @@
   <sheetData>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="16"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="1"/>
@@ -834,13 +834,13 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -855,13 +855,13 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="7"/>
@@ -879,13 +879,13 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="7"/>
@@ -900,20 +900,20 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="A8" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="9">
         <v>5</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -921,14 +921,14 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="11">
-        <f>B8+1</f>
+      <c r="A9" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="10">
+        <f t="shared" ref="B9:B24" si="0">B8+1</f>
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="7"/>
@@ -944,14 +944,14 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="11">
-        <f>B9+1</f>
+      <c r="A10" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="10">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
@@ -967,14 +967,14 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="11">
-        <f>B10+1</f>
+      <c r="A11" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="3"/>
@@ -990,102 +990,102 @@
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="11">
-        <f>B11+1</f>
+      <c r="A12" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="26">
+      <c r="D12" s="16"/>
+      <c r="E12" s="24">
         <v>5</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="18"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="11">
-        <f>B12+1</f>
+      <c r="A13" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="26">
+      <c r="D13" s="16"/>
+      <c r="E13" s="24">
         <v>5</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="11">
-        <f>B13+1</f>
+      <c r="A14" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="28">
+      <c r="D14" s="21"/>
+      <c r="E14" s="26">
         <v>5</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="23"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="11">
-        <f>B14+1</f>
+      <c r="A15" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="10">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="28">
+      <c r="D15" s="21"/>
+      <c r="E15" s="26">
         <v>5</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="23"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="17">
-        <f>B15+1</f>
+      <c r="A16" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="21">
+      <c r="D16" s="14"/>
+      <c r="E16" s="19">
         <v>5</v>
       </c>
       <c r="F16" s="8"/>
@@ -1097,14 +1097,14 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="11">
-        <f>B16+1</f>
+      <c r="A17" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="10">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="7"/>
@@ -1120,99 +1120,101 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="11">
-        <f>B17+1</f>
+      <c r="A18" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="10">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="24">
         <v>4</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="18"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="11">
-        <f>B18+1</f>
+      <c r="A19" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="10">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="21"/>
       <c r="E19" s="26">
         <v>4</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="23"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="11">
-        <f>B19+1</f>
+      <c r="A20" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="10">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="28">
+      <c r="D20" s="18"/>
+      <c r="E20" s="34">
         <v>4</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="32"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="11">
-        <f>B20+1</f>
+      <c r="A21" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="10">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33">
+      <c r="D21" s="18"/>
+      <c r="E21" s="34">
         <v>4</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="11">
-        <f>B21+1</f>
+      <c r="A22" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="10">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D22" s="3"/>
@@ -1220,115 +1222,121 @@
         <v>4</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="11">
-        <f>B22+1</f>
+      <c r="A23" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="10">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="9">
+      <c r="D23" s="16"/>
+      <c r="E23" s="24">
         <v>4</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="18"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="17">
-        <f>B23+1</f>
+      <c r="A24" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="10">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="26">
         <v>4</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="23"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="11">
-        <v>17</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="A25" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="10">
+        <f>B24+1</f>
+        <v>21</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="28">
+      <c r="D25" s="7"/>
+      <c r="E25" s="9">
         <v>3</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="23"/>
+      <c r="G25" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="11">
-        <v>18</v>
-      </c>
-      <c r="C26" s="23" t="s">
+      <c r="A26" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="10">
+        <f t="shared" ref="B26:B54" si="1">B25+1</f>
+        <v>22</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="9">
         <v>3</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="32"/>
+      <c r="G26" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="11">
-        <f>B26+1</f>
-        <v>19</v>
-      </c>
-      <c r="C27" s="32" t="s">
+      <c r="A27" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="10">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="33">
+      <c r="D27" s="7"/>
+      <c r="E27" s="9">
         <v>3</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="11">
-        <f>B27+1</f>
-        <v>20</v>
-      </c>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="10">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="7"/>
@@ -1336,77 +1344,77 @@
         <v>3</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="11">
-        <f>B28+1</f>
-        <v>21</v>
-      </c>
-      <c r="C29" s="20" t="s">
+      <c r="A29" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9">
+      <c r="D29" s="30"/>
+      <c r="E29" s="29">
         <v>3</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="32"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="11">
-        <f>B29+1</f>
-        <v>22</v>
-      </c>
-      <c r="C30" s="32" t="s">
+      <c r="A30" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="10">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33">
+      <c r="D30" s="36"/>
+      <c r="E30" s="24">
         <v>3</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="18"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="11">
-        <f>B30+1</f>
-        <v>23</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="A31" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="10">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="26">
+      <c r="D31" s="3"/>
+      <c r="E31" s="9">
         <v>3</v>
       </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="15" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="11">
-        <f>B31+1</f>
-        <v>24</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="A32" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="10">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="3"/>
@@ -1414,19 +1422,19 @@
         <v>3</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="11">
-        <f>B32+1</f>
-        <v>25</v>
-      </c>
-      <c r="C33" s="20" t="s">
+      <c r="A33" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="10">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="3"/>
@@ -1434,37 +1442,39 @@
         <v>3</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="18"/>
+      <c r="G33" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="11">
-        <f>B33+1</f>
-        <v>26</v>
-      </c>
-      <c r="C34" s="18" t="s">
+      <c r="A34" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="10">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="26">
+      <c r="D34" s="3"/>
+      <c r="E34" s="9">
         <v>3</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="11">
-        <f>B34+1</f>
-        <v>27</v>
-      </c>
-      <c r="C35" s="20" t="s">
+      <c r="A35" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="10">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="3"/>
@@ -1472,19 +1482,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="11">
-        <f>B35+1</f>
-        <v>28</v>
-      </c>
-      <c r="C36" s="20" t="s">
+      <c r="A36" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="10">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D36" s="3"/>
@@ -1492,91 +1502,93 @@
         <v>3</v>
       </c>
       <c r="F36" s="3"/>
-      <c r="G36" s="23"/>
+      <c r="G36" s="18" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="11">
-        <f>B36+1</f>
-        <v>29</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="A37" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="10">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="C37" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="28">
+      <c r="D37" s="28"/>
+      <c r="E37" s="29">
         <v>3</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="32"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="17">
-        <f>B37+1</f>
-        <v>30</v>
-      </c>
-      <c r="C38" s="32" t="s">
+      <c r="A38" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="10">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="33">
+      <c r="D38" s="28"/>
+      <c r="E38" s="29">
         <v>3</v>
       </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="17">
-        <f>B38+1</f>
-        <v>31</v>
-      </c>
-      <c r="C39" s="32" t="s">
+      <c r="A39" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="10">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="C39" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33">
+      <c r="D39" s="28"/>
+      <c r="E39" s="29">
         <v>3</v>
       </c>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="11">
-        <f>B39+1</f>
-        <v>32</v>
-      </c>
-      <c r="C40" s="35" t="s">
+      <c r="A40" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="10">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="C40" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="33">
+      <c r="D40" s="7"/>
+      <c r="E40" s="9">
         <v>2</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="15" t="s">
+      <c r="F40" s="3"/>
+      <c r="G40" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="11">
-        <f>B40+1</f>
-        <v>33</v>
-      </c>
-      <c r="C41" s="20" t="s">
+      <c r="A41" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="10">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -1586,19 +1598,19 @@
         <v>2</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" s="11">
-        <f>B41+1</f>
-        <v>34</v>
-      </c>
-      <c r="C42" s="20" t="s">
+      <c r="A42" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="10">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="3"/>
@@ -1606,37 +1618,37 @@
         <v>2</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="11">
-        <f>B42+1</f>
-        <v>35</v>
-      </c>
-      <c r="C43" s="32" t="s">
+      <c r="A43" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="10">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33">
+      <c r="D43" s="28"/>
+      <c r="E43" s="29">
         <v>2</v>
       </c>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="11">
-        <f>B43+1</f>
-        <v>36</v>
-      </c>
-      <c r="C44" s="20" t="s">
+      <c r="A44" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="3"/>
@@ -1644,37 +1656,37 @@
         <v>2</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="11">
-        <f>B44+1</f>
-        <v>37</v>
-      </c>
-      <c r="C45" s="23" t="s">
+      <c r="A45" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="10">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="28">
+      <c r="D45" s="21"/>
+      <c r="E45" s="26">
         <v>2</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="11">
-        <f>B45+1</f>
-        <v>38</v>
-      </c>
-      <c r="C46" s="20" t="s">
+      <c r="A46" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="10">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>43</v>
       </c>
       <c r="D46" s="3"/>
@@ -1682,19 +1694,19 @@
         <v>2</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="11">
-        <f>B46+1</f>
-        <v>39</v>
-      </c>
-      <c r="C47" s="20" t="s">
+      <c r="A47" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="10">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D47" s="3"/>
@@ -1702,19 +1714,19 @@
         <v>1</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="11">
-        <f>B47+1</f>
-        <v>40</v>
-      </c>
-      <c r="C48" s="20" t="s">
+      <c r="A48" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="10">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3"/>
@@ -1722,105 +1734,135 @@
         <v>1</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="17">
-        <f>B48+1</f>
-        <v>41</v>
-      </c>
-      <c r="C49" s="18" t="s">
+      <c r="A49" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="10">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="26">
+      <c r="D49" s="16"/>
+      <c r="E49" s="24">
         <v>1</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="17">
-        <f>B49+1</f>
-        <v>42</v>
-      </c>
-      <c r="C50" s="15" t="s">
+      <c r="A50" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="10">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="21">
+      <c r="D50" s="14"/>
+      <c r="E50" s="19">
         <v>1</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="15" t="s">
+      <c r="G50" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="B51" s="17">
-        <f>B50+1</f>
-        <v>43</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="10">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="19">
+        <v>1</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" s="10">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" s="10">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" s="10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="C56" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="C57" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="B52" s="17">
-        <f>B51+1</f>
-        <v>44</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="22" t="s">
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="C58" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="B53" s="17">
-        <f>B52+1</f>
-        <v>45</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="22" t="s">
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="C59" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="B54" s="17">
-        <f>B53+1</f>
-        <v>46</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="15"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:F4">

--- a/Casos_de_Uso_v.0.4.xlsx
+++ b/Casos_de_Uso_v.0.4.xlsx
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -776,11 +776,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -1039,7 +1039,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="18" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="21"/>
@@ -1060,7 +1060,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="21"/>
@@ -1150,7 +1150,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="21"/>
@@ -1252,7 +1252,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="21"/>
@@ -1668,7 +1668,7 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="21"/>
@@ -1881,7 +1881,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1893,7 +1893,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos_de_Uso_v.0.4.xlsx
+++ b/Casos_de_Uso_v.0.4.xlsx
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
